--- a/CuratedCoords.xlsx
+++ b/CuratedCoords.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\che7oz\Desktop\Wing DB Curated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Cheung\Documents\GitHub\WingQuant\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5910" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6159" uniqueCount="326">
   <si>
     <t>r1</t>
   </si>
@@ -1009,7 +1009,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1410,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:IK310"/>
   <sheetViews>
-    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="IA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DX2" sqref="DX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62739,7 +62739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -63046,12 +63046,2768 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C1:N100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:N100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <v>158</v>
+      </c>
+      <c r="F3">
+        <v>1011</v>
+      </c>
+      <c r="G3">
+        <v>62</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>65</v>
+      </c>
+      <c r="L3">
+        <v>72</v>
+      </c>
+      <c r="M3">
+        <v>1054</v>
+      </c>
+      <c r="N3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>165</v>
+      </c>
+      <c r="E4">
+        <v>166</v>
+      </c>
+      <c r="F4">
+        <v>1011</v>
+      </c>
+      <c r="G4">
+        <v>62</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>194</v>
+      </c>
+      <c r="L4">
+        <v>130</v>
+      </c>
+      <c r="M4">
+        <v>1054</v>
+      </c>
+      <c r="N4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>165</v>
+      </c>
+      <c r="E5">
+        <v>166</v>
+      </c>
+      <c r="F5">
+        <v>1271</v>
+      </c>
+      <c r="G5">
+        <v>286</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>194</v>
+      </c>
+      <c r="L5">
+        <v>130</v>
+      </c>
+      <c r="M5">
+        <v>1264</v>
+      </c>
+      <c r="N5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>189</v>
+      </c>
+      <c r="F6">
+        <v>1208</v>
+      </c>
+      <c r="G6">
+        <v>429</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>49</v>
+      </c>
+      <c r="L6">
+        <v>137</v>
+      </c>
+      <c r="M6">
+        <v>1209</v>
+      </c>
+      <c r="N6">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>83</v>
+      </c>
+      <c r="E7">
+        <v>261</v>
+      </c>
+      <c r="F7">
+        <v>692</v>
+      </c>
+      <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>85</v>
+      </c>
+      <c r="L7">
+        <v>204</v>
+      </c>
+      <c r="M7">
+        <v>641</v>
+      </c>
+      <c r="N7">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>68</v>
+      </c>
+      <c r="E8">
+        <v>284</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>368</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>29</v>
+      </c>
+      <c r="L8">
+        <v>253</v>
+      </c>
+      <c r="M8">
+        <v>72</v>
+      </c>
+      <c r="N8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>346</v>
+      </c>
+      <c r="E9">
+        <v>209</v>
+      </c>
+      <c r="F9">
+        <v>335</v>
+      </c>
+      <c r="G9">
+        <v>238</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>322</v>
+      </c>
+      <c r="L9">
+        <v>188</v>
+      </c>
+      <c r="M9">
+        <v>308</v>
+      </c>
+      <c r="N9">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>590</v>
+      </c>
+      <c r="E10">
+        <v>329</v>
+      </c>
+      <c r="F10">
+        <v>556</v>
+      </c>
+      <c r="G10">
+        <v>438</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>560</v>
+      </c>
+      <c r="L10">
+        <v>346</v>
+      </c>
+      <c r="M10">
+        <v>546</v>
+      </c>
+      <c r="N10">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>93</v>
+      </c>
+      <c r="F13">
+        <v>1047</v>
+      </c>
+      <c r="G13">
+        <v>112</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>34</v>
+      </c>
+      <c r="L13">
+        <v>123</v>
+      </c>
+      <c r="M13">
+        <v>976</v>
+      </c>
+      <c r="N13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>171</v>
+      </c>
+      <c r="E14">
+        <v>130</v>
+      </c>
+      <c r="F14">
+        <v>1047</v>
+      </c>
+      <c r="G14">
+        <v>112</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>156</v>
+      </c>
+      <c r="L14">
+        <v>156</v>
+      </c>
+      <c r="M14">
+        <v>976</v>
+      </c>
+      <c r="N14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>171</v>
+      </c>
+      <c r="E15">
+        <v>130</v>
+      </c>
+      <c r="F15">
+        <v>1270</v>
+      </c>
+      <c r="G15">
+        <v>376</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>156</v>
+      </c>
+      <c r="L15">
+        <v>156</v>
+      </c>
+      <c r="M15">
+        <v>1282</v>
+      </c>
+      <c r="N15">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>143</v>
+      </c>
+      <c r="F16">
+        <v>1158</v>
+      </c>
+      <c r="G16">
+        <v>497</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>27</v>
+      </c>
+      <c r="L16">
+        <v>184</v>
+      </c>
+      <c r="M16">
+        <v>1229</v>
+      </c>
+      <c r="N16">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>78</v>
+      </c>
+      <c r="E17">
+        <v>218</v>
+      </c>
+      <c r="F17">
+        <v>651</v>
+      </c>
+      <c r="G17">
+        <v>621</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>70</v>
+      </c>
+      <c r="L17">
+        <v>238</v>
+      </c>
+      <c r="M17">
+        <v>683</v>
+      </c>
+      <c r="N17">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>237</v>
+      </c>
+      <c r="F18">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>330</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>24</v>
+      </c>
+      <c r="L18">
+        <v>282</v>
+      </c>
+      <c r="M18">
+        <v>62</v>
+      </c>
+      <c r="N18">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>343</v>
+      </c>
+      <c r="E19">
+        <v>190</v>
+      </c>
+      <c r="F19">
+        <v>328</v>
+      </c>
+      <c r="G19">
+        <v>218</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>311</v>
+      </c>
+      <c r="L19">
+        <v>197</v>
+      </c>
+      <c r="M19">
+        <v>304</v>
+      </c>
+      <c r="N19">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>577</v>
+      </c>
+      <c r="E20">
+        <v>338</v>
+      </c>
+      <c r="F20">
+        <v>534</v>
+      </c>
+      <c r="G20">
+        <v>443</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>589</v>
+      </c>
+      <c r="L20">
+        <v>307</v>
+      </c>
+      <c r="M20">
+        <v>587</v>
+      </c>
+      <c r="N20">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <v>167</v>
+      </c>
+      <c r="F23">
+        <v>1048</v>
+      </c>
+      <c r="G23">
+        <v>55</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>29</v>
+      </c>
+      <c r="L23">
+        <v>82</v>
+      </c>
+      <c r="M23">
+        <v>1012</v>
+      </c>
+      <c r="N23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>160</v>
+      </c>
+      <c r="E24">
+        <v>189</v>
+      </c>
+      <c r="F24">
+        <v>1048</v>
+      </c>
+      <c r="G24">
+        <v>55</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>166</v>
+      </c>
+      <c r="L24">
+        <v>128</v>
+      </c>
+      <c r="M24">
+        <v>1012</v>
+      </c>
+      <c r="N24">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>160</v>
+      </c>
+      <c r="E25">
+        <v>189</v>
+      </c>
+      <c r="F25">
+        <v>1297</v>
+      </c>
+      <c r="G25">
+        <v>306</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>166</v>
+      </c>
+      <c r="L25">
+        <v>128</v>
+      </c>
+      <c r="M25">
+        <v>1244</v>
+      </c>
+      <c r="N25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>220</v>
+      </c>
+      <c r="F26">
+        <v>1246</v>
+      </c>
+      <c r="G26">
+        <v>457</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>26</v>
+      </c>
+      <c r="L26">
+        <v>146</v>
+      </c>
+      <c r="M26">
+        <v>1187</v>
+      </c>
+      <c r="N26">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>77</v>
+      </c>
+      <c r="E27">
+        <v>289</v>
+      </c>
+      <c r="F27">
+        <v>697</v>
+      </c>
+      <c r="G27">
+        <v>622</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>60</v>
+      </c>
+      <c r="L27">
+        <v>205</v>
+      </c>
+      <c r="M27">
+        <v>652</v>
+      </c>
+      <c r="N27">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>77</v>
+      </c>
+      <c r="E28">
+        <v>289</v>
+      </c>
+      <c r="F28">
+        <v>70</v>
+      </c>
+      <c r="G28">
+        <v>432</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>26</v>
+      </c>
+      <c r="L28">
+        <v>220</v>
+      </c>
+      <c r="M28">
+        <v>39</v>
+      </c>
+      <c r="N28">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>343</v>
+      </c>
+      <c r="E29">
+        <v>227</v>
+      </c>
+      <c r="F29">
+        <v>333</v>
+      </c>
+      <c r="G29">
+        <v>256</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>291</v>
+      </c>
+      <c r="L29">
+        <v>175</v>
+      </c>
+      <c r="M29">
+        <v>282</v>
+      </c>
+      <c r="N29">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>591</v>
+      </c>
+      <c r="E30">
+        <v>344</v>
+      </c>
+      <c r="F30">
+        <v>566</v>
+      </c>
+      <c r="G30">
+        <v>458</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30">
+        <v>553</v>
+      </c>
+      <c r="L30">
+        <v>306</v>
+      </c>
+      <c r="M30">
+        <v>543</v>
+      </c>
+      <c r="N30">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>178</v>
+      </c>
+      <c r="F33">
+        <v>987</v>
+      </c>
+      <c r="G33">
+        <v>41</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>37</v>
+      </c>
+      <c r="L33">
+        <v>93</v>
+      </c>
+      <c r="M33">
+        <v>1003</v>
+      </c>
+      <c r="N33">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>154</v>
+      </c>
+      <c r="E34">
+        <v>193</v>
+      </c>
+      <c r="F34">
+        <v>987</v>
+      </c>
+      <c r="G34">
+        <v>41</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>165</v>
+      </c>
+      <c r="L34">
+        <v>135</v>
+      </c>
+      <c r="M34">
+        <v>1003</v>
+      </c>
+      <c r="N34">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>154</v>
+      </c>
+      <c r="E35">
+        <v>193</v>
+      </c>
+      <c r="F35">
+        <v>1261</v>
+      </c>
+      <c r="G35">
+        <v>249</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <v>165</v>
+      </c>
+      <c r="L35">
+        <v>135</v>
+      </c>
+      <c r="M35">
+        <v>1283</v>
+      </c>
+      <c r="N35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>228</v>
+      </c>
+      <c r="F36">
+        <v>1210</v>
+      </c>
+      <c r="G36">
+        <v>394</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>30</v>
+      </c>
+      <c r="L36">
+        <v>156</v>
+      </c>
+      <c r="M36">
+        <v>1226</v>
+      </c>
+      <c r="N36">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>73</v>
+      </c>
+      <c r="E37">
+        <v>295</v>
+      </c>
+      <c r="F37">
+        <v>701</v>
+      </c>
+      <c r="G37">
+        <v>582</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>65</v>
+      </c>
+      <c r="L37">
+        <v>221</v>
+      </c>
+      <c r="M37">
+        <v>648</v>
+      </c>
+      <c r="N37">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>321</v>
+      </c>
+      <c r="F38">
+        <v>68</v>
+      </c>
+      <c r="G38">
+        <v>409</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>65</v>
+      </c>
+      <c r="L38">
+        <v>221</v>
+      </c>
+      <c r="M38">
+        <v>48</v>
+      </c>
+      <c r="N38">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>323</v>
+      </c>
+      <c r="E39">
+        <v>228</v>
+      </c>
+      <c r="F39">
+        <v>314</v>
+      </c>
+      <c r="G39">
+        <v>253</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>313</v>
+      </c>
+      <c r="L39">
+        <v>188</v>
+      </c>
+      <c r="M39">
+        <v>299</v>
+      </c>
+      <c r="N39">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>582</v>
+      </c>
+      <c r="E40">
+        <v>327</v>
+      </c>
+      <c r="F40">
+        <v>556</v>
+      </c>
+      <c r="G40">
+        <v>434</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40">
+        <v>564</v>
+      </c>
+      <c r="L40">
+        <v>326</v>
+      </c>
+      <c r="M40">
+        <v>555</v>
+      </c>
+      <c r="N40">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>54</v>
+      </c>
+      <c r="E43">
+        <v>97</v>
+      </c>
+      <c r="F43">
+        <v>1033</v>
+      </c>
+      <c r="G43">
+        <v>89</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>42</v>
+      </c>
+      <c r="L43">
+        <v>80</v>
+      </c>
+      <c r="M43">
+        <v>1029</v>
+      </c>
+      <c r="N43">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>161</v>
+      </c>
+      <c r="E44">
+        <v>132</v>
+      </c>
+      <c r="F44">
+        <v>1033</v>
+      </c>
+      <c r="G44">
+        <v>89</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>204</v>
+      </c>
+      <c r="L44">
+        <v>127</v>
+      </c>
+      <c r="M44">
+        <v>1029</v>
+      </c>
+      <c r="N44">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>161</v>
+      </c>
+      <c r="E45">
+        <v>132</v>
+      </c>
+      <c r="F45">
+        <v>1275</v>
+      </c>
+      <c r="G45">
+        <v>345</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>204</v>
+      </c>
+      <c r="L45">
+        <v>127</v>
+      </c>
+      <c r="M45">
+        <v>1285</v>
+      </c>
+      <c r="N45">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>43</v>
+      </c>
+      <c r="E46">
+        <v>152</v>
+      </c>
+      <c r="F46">
+        <v>1203</v>
+      </c>
+      <c r="G46">
+        <v>477</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46">
+        <v>34</v>
+      </c>
+      <c r="L46">
+        <v>144</v>
+      </c>
+      <c r="M46">
+        <v>1216</v>
+      </c>
+      <c r="N46">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>74</v>
+      </c>
+      <c r="E47">
+        <v>223</v>
+      </c>
+      <c r="F47">
+        <v>662</v>
+      </c>
+      <c r="G47">
+        <v>605</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47">
+        <v>64</v>
+      </c>
+      <c r="L47">
+        <v>206</v>
+      </c>
+      <c r="M47">
+        <v>671</v>
+      </c>
+      <c r="N47">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>31</v>
+      </c>
+      <c r="E48">
+        <v>264</v>
+      </c>
+      <c r="F48">
+        <v>55</v>
+      </c>
+      <c r="G48">
+        <v>320</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48">
+        <v>31</v>
+      </c>
+      <c r="L48">
+        <v>215</v>
+      </c>
+      <c r="M48">
+        <v>23</v>
+      </c>
+      <c r="N48">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>334</v>
+      </c>
+      <c r="E49">
+        <v>191</v>
+      </c>
+      <c r="F49">
+        <v>322</v>
+      </c>
+      <c r="G49">
+        <v>218</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <v>323</v>
+      </c>
+      <c r="L49">
+        <v>175</v>
+      </c>
+      <c r="M49">
+        <v>304</v>
+      </c>
+      <c r="N49">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50">
+        <v>572</v>
+      </c>
+      <c r="E50">
+        <v>330</v>
+      </c>
+      <c r="F50">
+        <v>532</v>
+      </c>
+      <c r="G50">
+        <v>435</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50">
+        <v>562</v>
+      </c>
+      <c r="L50">
+        <v>320</v>
+      </c>
+      <c r="M50">
+        <v>565</v>
+      </c>
+      <c r="N50">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>154</v>
+      </c>
+      <c r="F53">
+        <v>984</v>
+      </c>
+      <c r="G53">
+        <v>51</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>41</v>
+      </c>
+      <c r="L53">
+        <v>107</v>
+      </c>
+      <c r="M53">
+        <v>1031</v>
+      </c>
+      <c r="N53">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>140</v>
+      </c>
+      <c r="E54">
+        <v>175</v>
+      </c>
+      <c r="F54">
+        <v>984</v>
+      </c>
+      <c r="G54">
+        <v>51</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>248</v>
+      </c>
+      <c r="L54">
+        <v>145</v>
+      </c>
+      <c r="M54">
+        <v>1031</v>
+      </c>
+      <c r="N54">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>140</v>
+      </c>
+      <c r="E55">
+        <v>175</v>
+      </c>
+      <c r="F55">
+        <v>1243</v>
+      </c>
+      <c r="G55">
+        <v>287</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55">
+        <v>248</v>
+      </c>
+      <c r="L55">
+        <v>145</v>
+      </c>
+      <c r="M55">
+        <v>1276</v>
+      </c>
+      <c r="N55">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>23</v>
+      </c>
+      <c r="E56">
+        <v>206</v>
+      </c>
+      <c r="F56">
+        <v>1187</v>
+      </c>
+      <c r="G56">
+        <v>412</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56">
+        <v>31</v>
+      </c>
+      <c r="L56">
+        <v>159</v>
+      </c>
+      <c r="M56">
+        <v>1228</v>
+      </c>
+      <c r="N56">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>61</v>
+      </c>
+      <c r="E57">
+        <v>273</v>
+      </c>
+      <c r="F57">
+        <v>670</v>
+      </c>
+      <c r="G57">
+        <v>589</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57">
+        <v>80</v>
+      </c>
+      <c r="L57">
+        <v>225</v>
+      </c>
+      <c r="M57">
+        <v>708</v>
+      </c>
+      <c r="N57">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>61</v>
+      </c>
+      <c r="E58">
+        <v>273</v>
+      </c>
+      <c r="F58">
+        <v>55</v>
+      </c>
+      <c r="G58">
+        <v>407</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58">
+        <v>80</v>
+      </c>
+      <c r="L58">
+        <v>225</v>
+      </c>
+      <c r="M58">
+        <v>73</v>
+      </c>
+      <c r="N58">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>316</v>
+      </c>
+      <c r="E59">
+        <v>215</v>
+      </c>
+      <c r="F59">
+        <v>307</v>
+      </c>
+      <c r="G59">
+        <v>242</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59">
+        <v>322</v>
+      </c>
+      <c r="L59">
+        <v>185</v>
+      </c>
+      <c r="M59">
+        <v>311</v>
+      </c>
+      <c r="N59">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>549</v>
+      </c>
+      <c r="E60">
+        <v>325</v>
+      </c>
+      <c r="F60">
+        <v>531</v>
+      </c>
+      <c r="G60">
+        <v>434</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60">
+        <v>586</v>
+      </c>
+      <c r="L60">
+        <v>309</v>
+      </c>
+      <c r="M60">
+        <v>580</v>
+      </c>
+      <c r="N60">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>42</v>
+      </c>
+      <c r="E63">
+        <v>136</v>
+      </c>
+      <c r="F63">
+        <v>929</v>
+      </c>
+      <c r="G63">
+        <v>59</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K63">
+        <v>39</v>
+      </c>
+      <c r="L63">
+        <v>133</v>
+      </c>
+      <c r="M63">
+        <v>1025</v>
+      </c>
+      <c r="N63">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>154</v>
+      </c>
+      <c r="E64">
+        <v>160</v>
+      </c>
+      <c r="F64">
+        <v>929</v>
+      </c>
+      <c r="G64">
+        <v>59</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K64">
+        <v>165</v>
+      </c>
+      <c r="L64">
+        <v>166</v>
+      </c>
+      <c r="M64">
+        <v>1025</v>
+      </c>
+      <c r="N64">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>154</v>
+      </c>
+      <c r="E65">
+        <v>160</v>
+      </c>
+      <c r="F65">
+        <v>1174</v>
+      </c>
+      <c r="G65">
+        <v>267</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65">
+        <v>165</v>
+      </c>
+      <c r="L65">
+        <v>166</v>
+      </c>
+      <c r="M65">
+        <v>1281</v>
+      </c>
+      <c r="N65">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>31</v>
+      </c>
+      <c r="E66">
+        <v>184</v>
+      </c>
+      <c r="F66">
+        <v>1125</v>
+      </c>
+      <c r="G66">
+        <v>415</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K66">
+        <v>28</v>
+      </c>
+      <c r="L66">
+        <v>198</v>
+      </c>
+      <c r="M66">
+        <v>1227</v>
+      </c>
+      <c r="N66">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>75</v>
+      </c>
+      <c r="E67">
+        <v>250</v>
+      </c>
+      <c r="F67">
+        <v>651</v>
+      </c>
+      <c r="G67">
+        <v>574</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67">
+        <v>80</v>
+      </c>
+      <c r="L67">
+        <v>255</v>
+      </c>
+      <c r="M67">
+        <v>707</v>
+      </c>
+      <c r="N67">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>75</v>
+      </c>
+      <c r="E68">
+        <v>250</v>
+      </c>
+      <c r="F68">
+        <v>71</v>
+      </c>
+      <c r="G68">
+        <v>260</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68">
+        <v>21</v>
+      </c>
+      <c r="L68">
+        <v>298</v>
+      </c>
+      <c r="M68">
+        <v>63</v>
+      </c>
+      <c r="N68">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>312</v>
+      </c>
+      <c r="E69">
+        <v>202</v>
+      </c>
+      <c r="F69">
+        <v>301</v>
+      </c>
+      <c r="G69">
+        <v>227</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69">
+        <v>322</v>
+      </c>
+      <c r="L69">
+        <v>201</v>
+      </c>
+      <c r="M69">
+        <v>315</v>
+      </c>
+      <c r="N69">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <v>540</v>
+      </c>
+      <c r="E70">
+        <v>314</v>
+      </c>
+      <c r="F70">
+        <v>513</v>
+      </c>
+      <c r="G70">
+        <v>417</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70">
+        <v>577</v>
+      </c>
+      <c r="L70">
+        <v>305</v>
+      </c>
+      <c r="M70">
+        <v>571</v>
+      </c>
+      <c r="N70">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>39</v>
+      </c>
+      <c r="E73">
+        <v>128</v>
+      </c>
+      <c r="F73">
+        <v>1018</v>
+      </c>
+      <c r="G73">
+        <v>61</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73">
+        <v>32</v>
+      </c>
+      <c r="L73">
+        <v>288</v>
+      </c>
+      <c r="M73">
+        <v>946</v>
+      </c>
+      <c r="N73">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>155</v>
+      </c>
+      <c r="E74">
+        <v>154</v>
+      </c>
+      <c r="F74">
+        <v>1018</v>
+      </c>
+      <c r="G74">
+        <v>61</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K74">
+        <v>172</v>
+      </c>
+      <c r="L74">
+        <v>297</v>
+      </c>
+      <c r="M74">
+        <v>946</v>
+      </c>
+      <c r="N74">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75">
+        <v>155</v>
+      </c>
+      <c r="E75">
+        <v>154</v>
+      </c>
+      <c r="F75">
+        <v>1280</v>
+      </c>
+      <c r="G75">
+        <v>289</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75">
+        <v>172</v>
+      </c>
+      <c r="L75">
+        <v>297</v>
+      </c>
+      <c r="M75">
+        <v>1280</v>
+      </c>
+      <c r="N75">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>32</v>
+      </c>
+      <c r="E76">
+        <v>178</v>
+      </c>
+      <c r="F76">
+        <v>1202</v>
+      </c>
+      <c r="G76">
+        <v>444</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K76">
+        <v>40</v>
+      </c>
+      <c r="L76">
+        <v>360</v>
+      </c>
+      <c r="M76">
+        <v>1254</v>
+      </c>
+      <c r="N76">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77">
+        <v>73</v>
+      </c>
+      <c r="E77">
+        <v>248</v>
+      </c>
+      <c r="F77">
+        <v>674</v>
+      </c>
+      <c r="G77">
+        <v>602</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K77">
+        <v>154</v>
+      </c>
+      <c r="L77">
+        <v>406</v>
+      </c>
+      <c r="M77">
+        <v>746</v>
+      </c>
+      <c r="N77">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>73</v>
+      </c>
+      <c r="E78">
+        <v>248</v>
+      </c>
+      <c r="F78">
+        <v>55</v>
+      </c>
+      <c r="G78">
+        <v>350</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78">
+        <v>148</v>
+      </c>
+      <c r="L78">
+        <v>404</v>
+      </c>
+      <c r="M78">
+        <v>141</v>
+      </c>
+      <c r="N78">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>332</v>
+      </c>
+      <c r="E79">
+        <v>202</v>
+      </c>
+      <c r="F79">
+        <v>321</v>
+      </c>
+      <c r="G79">
+        <v>229</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79">
+        <v>316</v>
+      </c>
+      <c r="L79">
+        <v>308</v>
+      </c>
+      <c r="M79">
+        <v>312</v>
+      </c>
+      <c r="N79">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>567</v>
+      </c>
+      <c r="E80">
+        <v>324</v>
+      </c>
+      <c r="F80">
+        <v>537</v>
+      </c>
+      <c r="G80">
+        <v>434</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80">
+        <v>592</v>
+      </c>
+      <c r="L80">
+        <v>376</v>
+      </c>
+      <c r="M80">
+        <v>611</v>
+      </c>
+      <c r="N80">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>23</v>
+      </c>
+      <c r="E83">
+        <v>177</v>
+      </c>
+      <c r="F83">
+        <v>996</v>
+      </c>
+      <c r="G83">
+        <v>47</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83">
+        <v>19</v>
+      </c>
+      <c r="L83">
+        <v>214</v>
+      </c>
+      <c r="M83">
+        <v>947</v>
+      </c>
+      <c r="N83">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>135</v>
+      </c>
+      <c r="E84">
+        <v>197</v>
+      </c>
+      <c r="F84">
+        <v>996</v>
+      </c>
+      <c r="G84">
+        <v>47</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K84">
+        <v>167</v>
+      </c>
+      <c r="L84">
+        <v>230</v>
+      </c>
+      <c r="M84">
+        <v>947</v>
+      </c>
+      <c r="N84">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>135</v>
+      </c>
+      <c r="E85">
+        <v>197</v>
+      </c>
+      <c r="F85">
+        <v>1254</v>
+      </c>
+      <c r="G85">
+        <v>276</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K85">
+        <v>167</v>
+      </c>
+      <c r="L85">
+        <v>230</v>
+      </c>
+      <c r="M85">
+        <v>1257</v>
+      </c>
+      <c r="N85">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>21</v>
+      </c>
+      <c r="E86">
+        <v>232</v>
+      </c>
+      <c r="F86">
+        <v>1216</v>
+      </c>
+      <c r="G86">
+        <v>413</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K86">
+        <v>18</v>
+      </c>
+      <c r="L86">
+        <v>276</v>
+      </c>
+      <c r="M86">
+        <v>1222</v>
+      </c>
+      <c r="N86">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>64</v>
+      </c>
+      <c r="E87">
+        <v>299</v>
+      </c>
+      <c r="F87">
+        <v>693</v>
+      </c>
+      <c r="G87">
+        <v>614</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K87">
+        <v>108</v>
+      </c>
+      <c r="L87">
+        <v>339</v>
+      </c>
+      <c r="M87">
+        <v>713</v>
+      </c>
+      <c r="N87">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88">
+        <v>23</v>
+      </c>
+      <c r="E88">
+        <v>346</v>
+      </c>
+      <c r="F88">
+        <v>52</v>
+      </c>
+      <c r="G88">
+        <v>397</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K88">
+        <v>36</v>
+      </c>
+      <c r="L88">
+        <v>373</v>
+      </c>
+      <c r="M88">
+        <v>58</v>
+      </c>
+      <c r="N88">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>317</v>
+      </c>
+      <c r="E89">
+        <v>233</v>
+      </c>
+      <c r="F89">
+        <v>308</v>
+      </c>
+      <c r="G89">
+        <v>262</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K89">
+        <v>313</v>
+      </c>
+      <c r="L89">
+        <v>255</v>
+      </c>
+      <c r="M89">
+        <v>305</v>
+      </c>
+      <c r="N89">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90">
+        <v>557</v>
+      </c>
+      <c r="E90">
+        <v>342</v>
+      </c>
+      <c r="F90">
+        <v>540</v>
+      </c>
+      <c r="G90">
+        <v>454</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90">
+        <v>590</v>
+      </c>
+      <c r="L90">
+        <v>347</v>
+      </c>
+      <c r="M90">
+        <v>585</v>
+      </c>
+      <c r="N90">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J92" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K93">
+        <v>23</v>
+      </c>
+      <c r="L93">
+        <v>191</v>
+      </c>
+      <c r="M93">
+        <v>981</v>
+      </c>
+      <c r="N93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94">
+        <v>161</v>
+      </c>
+      <c r="L94">
+        <v>207</v>
+      </c>
+      <c r="M94">
+        <v>981</v>
+      </c>
+      <c r="N94">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K95">
+        <v>161</v>
+      </c>
+      <c r="L95">
+        <v>207</v>
+      </c>
+      <c r="M95">
+        <v>1255</v>
+      </c>
+      <c r="N95">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="J96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K96">
+        <v>20</v>
+      </c>
+      <c r="L96">
+        <v>246</v>
+      </c>
+      <c r="M96">
+        <v>1210</v>
+      </c>
+      <c r="N96">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K97">
+        <v>71</v>
+      </c>
+      <c r="L97">
+        <v>304</v>
+      </c>
+      <c r="M97">
+        <v>694</v>
+      </c>
+      <c r="N97">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="98" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K98">
+        <v>17</v>
+      </c>
+      <c r="L98">
+        <v>345</v>
+      </c>
+      <c r="M98">
+        <v>73</v>
+      </c>
+      <c r="N98">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="99" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K99">
+        <v>296</v>
+      </c>
+      <c r="L99">
+        <v>237</v>
+      </c>
+      <c r="M99">
+        <v>290</v>
+      </c>
+      <c r="N99">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="100" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100">
+        <v>569</v>
+      </c>
+      <c r="L100">
+        <v>337</v>
+      </c>
+      <c r="M100">
+        <v>588</v>
+      </c>
+      <c r="N100">
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>